--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s4_P6_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1194.540787670355</v>
+        <v>455.8781981698167</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.1743708687662</v>
+        <v>45.87819816981671</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.90067155946416</v>
+        <v>14.59347554089123</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.05708836103901</v>
+        <v>14.59347554089123</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>733.4400000000137</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>426.77</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>31.61595173195241</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.28956874289246</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1010,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.31890060157826</v>
+        <v>38.92645506346165</v>
       </c>
     </row>
     <row r="10">
@@ -1018,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43.21602380635411</v>
+        <v>34.66154480832267</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +1032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1148,13 +1148,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1165,68 +1165,12 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1329,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1340,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1351,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1362,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1384,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>108.5300000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1395,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.8900000000007</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -1406,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -1417,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>117.0900000000007</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1428,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.2400000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1439,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>163.9900000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1450,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>163.9100000000008</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1461,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.6700000000008</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -1472,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>158.3650000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1483,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.5850000000008</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -1494,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46.63000000000007</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1505,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1516,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1527,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -1538,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>47.43000000000007</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -1549,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.4849999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1560,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>67.7649999999997</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1571,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>70.50499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1582,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>69.0599999999997</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1593,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>66.45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1604,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>108.5300000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -1615,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>115.8900000000007</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -1626,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>114.45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -1637,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>117.0900000000007</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -1648,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>110.2400000000007</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1659,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>62.4849999999997</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1670,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>67.7649999999997</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39">
@@ -1681,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>70.50499999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -1692,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>69.0599999999997</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1703,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>66.45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -1714,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>163.9900000000008</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -1725,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>163.9100000000008</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -1736,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>161.6700000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
@@ -1747,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>158.3650000000008</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -1758,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>152.5850000000008</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.530000000000712</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>15.89000000000071</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09000000000073</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.24000000000071</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1837,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1848,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>63.99000000000083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>63.91000000000079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>61.67000000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>58.3650000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>52.5850000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2072,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2083,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2094,7 +2038,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2105,7 +2049,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2171,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2182,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2193,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2204,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -2215,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2226,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2237,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2248,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2259,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2270,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2284,7 +2228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2311,7 +2255,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2322,7 +2266,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2333,7 +2277,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2344,7 +2288,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2358,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2366,10 +2310,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2377,10 +2321,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2388,10 +2332,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2399,10 +2343,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2413,53 +2357,9 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
